--- a/biology/Médecine/Francine_Leca/Francine_Leca.xlsx
+++ b/biology/Médecine/Francine_Leca/Francine_Leca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francine Leca, née le 20 mai 1938  Neuilly-sur-Seine (Hauts-de-Seine), est une chirurgienne et professeure de médecine française spécialisée en chirurgie cardiaque, pionnière en chirurgie cardiaque pédiatrique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francine Leca, née le 20 mai 1938  Neuilly-sur-Seine (Hauts-de-Seine), est une chirurgienne et professeure de médecine française spécialisée en chirurgie cardiaque, pionnière en chirurgie cardiaque pédiatrique.
 </t>
         </is>
       </c>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Francine Leca s’oriente très jeune vers les études de médecine. Elle est interne des hôpitaux de Paris en 1965[2]. Lors d’un stage dans le service de chirurgie cardiaque du professeur Jean Mathey à l’hôpital Laennec[3] en janvier 1968[4], elle assiste à sa première opération à cœur ouvert[5].  Elle découvre la chirurgie cardiaque de l’enfant au côté du professeur George Lemoine. Elle se spécialise dans les cardiopathies congénitales[6].
-Carrière médicale
-En 1971[4], Francine Leca est la première femme à être devenue chirurgienne cardiaque en France[3],[2], et cheffe des services de chirurgie cardiaque de l'hôpital Laennec où elle prend la succession du professeur Jean-Yves Neveux  de 1989 à 1999[7] puis de l'hôpital Necker-Enfants malades de 1999 à 2006[5].
-Engagements
-Francine Leca fonde en 1996, avec Patrice Roynette, l’association Mécénat Chirurgie Cardiaque - Enfant du Monde qui récolte des fonds pour réparer les cœurs d’enfants venus des pays défavorisés atteints de graves maladies cardiaques[5]. Plus de 4 000 enfants ont été opérés[8] en France grâce à cette organisation et à son réseau constitué de 350 familles d’accueil, 350 bénévoles et d’une équipe de 13 salariés[9].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francine Leca s’oriente très jeune vers les études de médecine. Elle est interne des hôpitaux de Paris en 1965. Lors d’un stage dans le service de chirurgie cardiaque du professeur Jean Mathey à l’hôpital Laennec en janvier 1968, elle assiste à sa première opération à cœur ouvert.  Elle découvre la chirurgie cardiaque de l’enfant au côté du professeur George Lemoine. Elle se spécialise dans les cardiopathies congénitales.
 </t>
         </is>
       </c>
@@ -544,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grand officier de la Légion d'honneur[10]
- Grand officier de l'ordre national du Mérite</t>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1971, Francine Leca est la première femme à être devenue chirurgienne cardiaque en France et cheffe des services de chirurgie cardiaque de l'hôpital Laennec où elle prend la succession du professeur Jean-Yves Neveux  de 1989 à 1999 puis de l'hôpital Necker-Enfants malades de 1999 à 2006.
+</t>
         </is>
       </c>
     </row>
@@ -575,12 +594,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francine Leca fonde en 1996, avec Patrice Roynette, l’association Mécénat Chirurgie Cardiaque - Enfant du Monde qui récolte des fonds pour réparer les cœurs d’enfants venus des pays défavorisés atteints de graves maladies cardiaques. Plus de 4 000 enfants ont été opérés en France grâce à cette organisation et à son réseau constitué de 350 familles d’accueil, 350 bénévoles et d’une équipe de 13 salariés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Francine_Leca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francine_Leca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand officier de la Légion d'honneur
+ Grand officier de l'ordre national du Mérite</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Francine_Leca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francine_Leca</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix de la Tolérance Marcel Rudloff 2015[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix de la Tolérance Marcel Rudloff 2015.
 Trophée des femmes en or 1998</t>
         </is>
       </c>
